--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_22-00.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_22-00.xlsx
@@ -3720,7 +3720,7 @@
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
